--- a/expressSRV/public/1608824781309-ZMM120_Mongo short.xlsx
+++ b/expressSRV/public/1608824781309-ZMM120_Mongo short.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\also_project\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\also_project\ALSO_project\expressSRV\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39010499-EA9D-45B5-BEE8-6D55C72C2517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21705" windowHeight="9705"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>FUJITSU TFM Modul f FBU up PRAID EP420i</t>
   </si>
@@ -183,25 +184,22 @@
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -596,14 +594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
@@ -612,7 +610,7 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -638,7 +636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>80001310</v>
       </c>
@@ -655,14 +653,14 @@
         <v>140</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>80001310</v>
       </c>
@@ -679,13 +677,13 @@
         <v>345</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>80001310</v>
       </c>
@@ -702,13 +700,13 @@
         <v>122</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>80001310</v>
       </c>
@@ -725,13 +723,13 @@
         <v>582.12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>80001310</v>
       </c>
@@ -748,13 +746,13 @@
         <v>3333</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>80001310</v>
       </c>
@@ -777,7 +775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>80001310</v>
       </c>
@@ -800,7 +798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>80001310</v>
       </c>
@@ -817,13 +815,13 @@
         <v>253.36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>80001310</v>
       </c>
@@ -846,7 +844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -869,7 +867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>80001310</v>
       </c>
@@ -889,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>80001310</v>
       </c>
@@ -909,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>80001310</v>
       </c>
@@ -929,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>80001310</v>
       </c>
@@ -949,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>80001310</v>
       </c>
@@ -969,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>80001310</v>
       </c>
@@ -989,7 +987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>80001310</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>80001310</v>
       </c>
